--- a/Largecap_rev.xlsx
+++ b/Largecap_rev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\ARTICLES\Data Analysis project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6E0FC-3EFD-49DD-86B5-482F1369DA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95082B9F-4D62-433B-BC7A-2D1360806AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C48EA2A-9D45-4112-A543-C935F2EC1DF2}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>TIME PERIOD</t>
   </si>
   <si>
-    <t>REVENUE</t>
-  </si>
-  <si>
     <t>REVENUE GROWTH RATE</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>WIPRO</t>
+  </si>
+  <si>
+    <t>REVENUE (in Cr)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -119,6 +119,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23785A16-D990-4404-AB1B-96CFC5B18D56}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="102" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,18 +455,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2024</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45383</v>
       </c>
       <c r="C2" s="4">
         <v>153670</v>
@@ -476,10 +477,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2023</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45017</v>
       </c>
       <c r="C3" s="4">
         <v>146767</v>
@@ -490,10 +491,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2022</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44652</v>
       </c>
       <c r="C4" s="4">
         <v>121641</v>
@@ -504,10 +505,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2021</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44287</v>
       </c>
       <c r="C5" s="4">
         <v>100472</v>
@@ -518,100 +519,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2020</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43922</v>
       </c>
       <c r="C6" s="4">
         <v>90791</v>
       </c>
       <c r="D6" s="3">
-        <f>(C6-C7)*100/C7</f>
+        <f t="shared" ref="D6:D11" si="0">(C6-C7)*100/C7</f>
         <v>9.8167523435137589</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2019</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43556</v>
       </c>
       <c r="C7" s="4">
         <v>82675</v>
       </c>
       <c r="D7" s="3">
-        <f>(C7-C8)*100/C8</f>
+        <f t="shared" si="0"/>
         <v>17.232920223476363</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2018</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43191</v>
       </c>
       <c r="C8" s="4">
         <v>70522</v>
       </c>
       <c r="D8" s="3">
-        <f>(C8-C9)*100/C9</f>
+        <f t="shared" si="0"/>
         <v>2.97587757724432</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2017</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>42826</v>
       </c>
       <c r="C9" s="4">
         <v>68484</v>
       </c>
       <c r="D9" s="3">
-        <f>(C9-C10)*100/C10</f>
+        <f t="shared" si="0"/>
         <v>9.6779359715571491</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2016</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42461</v>
       </c>
       <c r="C10" s="4">
         <v>62441</v>
       </c>
       <c r="D10" s="3">
-        <f>(C10-C11)*100/C11</f>
+        <f t="shared" si="0"/>
         <v>17.108347868489655</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2015</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42095</v>
       </c>
       <c r="C11" s="4">
         <v>53319</v>
       </c>
       <c r="D11" s="3">
-        <f>(C11-C12)*100/C12</f>
+        <f t="shared" si="0"/>
         <v>6.3550954461133387</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2014</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>41730</v>
       </c>
       <c r="C12" s="4">
         <v>50133</v>
@@ -622,10 +623,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2024</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45383</v>
       </c>
       <c r="C13" s="4">
         <v>240893</v>
@@ -636,10 +637,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2023</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45017</v>
       </c>
       <c r="C14" s="4">
         <v>225458</v>
@@ -651,130 +652,130 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2022</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44652</v>
       </c>
       <c r="C15" s="4">
         <v>191754</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:D22" si="0">(C15-C16)*100/C16</f>
+        <f t="shared" ref="D15:D22" si="1">(C15-C16)*100/C16</f>
         <v>16.797115308478045</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2021</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44287</v>
       </c>
       <c r="C16" s="4">
         <v>164177</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.60531765095668</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2020</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43922</v>
       </c>
       <c r="C17" s="4">
         <v>156949</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1594873790650198</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2019</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43556</v>
       </c>
       <c r="C18" s="4">
         <v>146463</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.975012997140627</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2018</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43191</v>
       </c>
       <c r="C19" s="4">
         <v>123104</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3554922604818334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2017</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>42826</v>
       </c>
       <c r="C20" s="4">
         <v>117966</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5783185759254827</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2016</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42461</v>
       </c>
       <c r="C21" s="4">
         <v>108646</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.789535964838137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2015</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42095</v>
       </c>
       <c r="C22" s="4">
         <v>94648</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.693872312337273</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2014</v>
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <v>41730</v>
       </c>
       <c r="C23" s="4">
         <v>81809</v>
@@ -785,10 +786,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2024</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45383</v>
       </c>
       <c r="C24" s="4">
         <v>89794</v>
@@ -800,145 +801,145 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2023</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45017</v>
       </c>
       <c r="C25" s="4">
         <v>90934</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ref="D25:D33" si="1">(C25-C26)*100/C26</f>
+        <f t="shared" ref="D25:D33" si="2">(C25-C26)*100/C26</f>
         <v>14.342118499144956</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2022</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44652</v>
       </c>
       <c r="C26" s="4">
         <v>79528</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.772243822499277</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2021</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>44287</v>
       </c>
       <c r="C27" s="4">
         <v>62242</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4704923377893708</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2020</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43922</v>
       </c>
       <c r="C28" s="4">
         <v>61340</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1320069262893426</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2019</v>
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43556</v>
       </c>
       <c r="C29" s="4">
         <v>58906</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8173332113114302</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2018</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43191</v>
       </c>
       <c r="C30" s="4">
         <v>54635</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.411119331613043</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2017</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42826</v>
       </c>
       <c r="C31" s="4">
         <v>55417</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3348828200658529</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2016</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42461</v>
       </c>
       <c r="C32" s="4">
         <v>51630</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1128111923580875</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2015</v>
+        <v>5</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42095</v>
       </c>
       <c r="C33" s="4">
         <v>47318</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1257712170376131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2014</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="5">
+        <v>41730</v>
       </c>
       <c r="C34" s="4">
         <v>43762</v>
